--- a/2025_Dhwanit_One_to_one/02 Advanced Excel/jul1.xlsx
+++ b/2025_Dhwanit_One_to_one/02 Advanced Excel/jul1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_Dhwanit_One_to_one\02 Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787CB96-5BFC-4CEA-93F8-4DDBF46F0896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37BA0A-2E46-44F2-BCFD-D1E439D1CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8841A449-B5A4-4350-BFCF-745781B78CE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8841A449-B5A4-4350-BFCF-745781B78CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Qty:</t>
   </si>
@@ -141,9 +141,6 @@
     <t>6's</t>
   </si>
   <si>
-    <t>4s</t>
-  </si>
-  <si>
     <t>Batsman</t>
   </si>
   <si>
@@ -172,13 +169,19 @@
   </si>
   <si>
     <t>Index-Match Merged</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>4's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,28 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,19 +244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF003399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC5D3FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,47 +342,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -427,13 +389,14 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Question Hlookupworked-style" pivot="0" count="3" xr9:uid="{4962AF0F-B938-41E4-B022-6C37AF0F05A8}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF003399"/>
       <color rgb="FF336699"/>
       <color rgb="FF0066CC"/>
     </mruColors>
@@ -447,18 +410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{052FC5AD-5931-438C-B43D-3E25C3F6271E}" name="Table_57" displayName="Table_57" ref="B3:E8" headerRowDxfId="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EEF02E1-7BA3-4C39-A4AF-BEF530C8566D}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{861E77EF-B067-4E98-A85B-76F7E182A4CB}" name="SR Tendulkar"/>
-    <tableColumn id="3" xr3:uid="{6797B327-F1BF-4CA4-B39E-B99C19FC350C}" name="V Sehwag"/>
-    <tableColumn id="4" xr3:uid="{F2982CA4-8082-4798-93BA-C6E1827628D1}" name="V Kohli"/>
-  </tableColumns>
-  <tableStyleInfo name="Question Hlookupworked-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A7929B-DF63-48AD-A030-0F4C2243C022}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,15 +720,16 @@
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -787,7 +739,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -796,47 +748,72 @@
         <v>-10</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="11">
+        <v>123</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Positive Integers Only!" error="Quantity can neither be negative, zero nor it can be in floating point." sqref="D3" xr:uid="{567FFD65-36D2-4E88-8BB1-BE59E1742C0C}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Please Enter A Positive Number" prompt="As amount cannot be negative or zero." sqref="D4" xr:uid="{4381B566-74F3-4F29-97A8-95D7EDDA9C03}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{EE6DB7A0-12D2-4300-91A3-565023EDF708}">
+      <formula1>45292</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{8701F47D-E1E0-4531-AF62-BC46DE786574}">
+      <formula1>"Mon, Tue, Wed, Thu, Fri, Sat"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B07F4F9A-90B0-4304-A979-E61FFFA6D899}">
+          <x14:formula1>
+            <xm:f>Population!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -845,7 +822,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +984,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,6 +1029,18 @@
       <c r="B2">
         <v>2590</v>
       </c>
+      <c r="C2">
+        <f>VLOOKUP(A2, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>68.7</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>75.53</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1059,6 +1048,18 @@
       </c>
       <c r="B3">
         <v>3196</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>68.8</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1072,12 +1073,24 @@
       <c r="B4">
         <v>2400</v>
       </c>
+      <c r="C4">
+        <f>VLOOKUP(A4, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(A4, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>38.799999999999997</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -1088,6 +1101,18 @@
       <c r="B5">
         <v>2530</v>
       </c>
+      <c r="C5">
+        <f>VLOOKUP(A5, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>72.3</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(A5, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>61.05</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
         <v>16</v>
@@ -1102,6 +1127,18 @@
       <c r="B6">
         <v>2900</v>
       </c>
+      <c r="C6">
+        <f>VLOOKUP(A6, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>52.2</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(A6, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>34.700000000000003</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>28</v>
@@ -1115,6 +1152,18 @@
       </c>
       <c r="B7">
         <v>2850</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7, Population!$B$2:$D$7, 3, FALSE)</f>
+        <v>60.5</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(A7, Population!$B$2:$C$7, 2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7, Population!$B$2:$F$7, 5,FALSE)</f>
+        <v>62.2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
@@ -1138,37 +1187,48 @@
       <c r="K9" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(B13, A2:A7, 0)</f>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
+      <c r="E14" t="str">
+        <f>INDEX(A2:A7, E13)</f>
+        <v>Disa</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="14" t="s">
-        <v>42</v>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1176,87 +1236,122 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(B16, B1:E1, 0)</f>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>INDEX(B2:D7, E16, E17)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="e">
+        <f>MATCH(B13, A1:E7, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f>MATCH(C22, A1:A7, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <f>MATCH(C23, A1:E1, 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C24" s="5">
+        <f>VLOOKUP(C22, A1:E7, G23,FALSE)</f>
+        <v>38.799999999999997</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C25" s="9">
+        <f>INDEX(A1:E7, G22, G23)</f>
+        <v>38.799999999999997</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="9">
+        <f>INDEX(A1:E7, MATCH(C22, A1:A7, 0), MATCH(C23, A1:E1, 0))</f>
+        <v>38.799999999999997</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1269,7 +1364,7 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{FE11E48D-BC8E-4AD7-96F3-F308073CC172}">
-      <formula1>$A$1:$D$1</formula1>
+      <formula1>$A$1:$E$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22 J4 B13" xr:uid="{D1AF33DB-32AB-4D38-869B-BE134C3B46C2}">
       <formula1>$A$2:$A$7</formula1>
@@ -1284,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5EB3AB-EDCB-4C4F-89B8-2F0BD2EA93E2}">
-  <dimension ref="B3:H13"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,141 +1391,216 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14">
+        <v>200</v>
+      </c>
+      <c r="D3" s="14">
+        <v>97</v>
+      </c>
+      <c r="E3" s="14">
+        <v>98</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14">
+        <f>HLOOKUP(H2, $C$2:$E$7,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="14">
+        <f>HLOOKUP(H2, C2:E7, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14">
+        <v>32</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14">
+        <v>100</v>
+      </c>
+      <c r="D6" s="14">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="14">
+        <v>125</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8">
+      <c r="I10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="14">
         <v>200</v>
       </c>
-      <c r="D4" s="8">
+      <c r="I11" s="14">
+        <v>20</v>
+      </c>
+      <c r="J11" s="14">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14">
+        <v>100</v>
+      </c>
+      <c r="L11" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="14">
         <v>97</v>
       </c>
-      <c r="E4" s="8">
+      <c r="I12" s="14">
+        <v>22</v>
+      </c>
+      <c r="J12" s="14">
+        <v>35</v>
+      </c>
+      <c r="K12" s="14">
+        <v>25</v>
+      </c>
+      <c r="L12" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14">
         <v>98</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="I13" s="14">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="8">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8">
-        <v>35</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="J13" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8">
-        <v>100</v>
-      </c>
-      <c r="D7" s="8">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="K13" s="14">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="L13" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13"/>
-    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 C11" xr:uid="{4116607F-BA89-4104-BC26-1A6B693291F7}">
-      <formula1>$C$3:$E$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{7CD04B4F-F822-4C9B-9545-58DDADD3EFF3}">
-      <formula1>$B$4:$B$8</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{C268675C-E108-4708-BDF3-3A77C9DE2B65}">
+      <formula1>$C$2:$E$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>